--- a/Data/EC/NIT-9002183157.xlsx
+++ b/Data/EC/NIT-9002183157.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CCA6E9-8E51-498D-A986-5936008573D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78877928-B8D3-4DFB-8DCC-7B57C9DD8525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF9854AC-404D-4A85-BD30-1E0B2F03D8F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11DEC15B-DE27-49F7-886E-84A17877F8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,175 +71,175 @@
     <t>LALINESTER VEGA DEL CASTILLO</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>8534741</t>
+  </si>
+  <si>
+    <t>JULIO CESAS COGOLLO OSPINO</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>34978840</t>
+  </si>
+  <si>
+    <t>NINFA CECILIA MACEA CARVAJAL</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>1708</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>8534741</t>
-  </si>
-  <si>
-    <t>JULIO CESAS COGOLLO OSPINO</t>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
   </si>
   <si>
     <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>34978840</t>
-  </si>
-  <si>
-    <t>NINFA CECILIA MACEA CARVAJAL</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -338,9 +338,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -358,156 +508,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -553,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60DFFA9-2C02-11D3-1E45-2907EFC68655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04D4A42-8C1D-CB72-114E-5465E38C6948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B5B37E-E48B-47DA-8D0F-4078F6D64D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8A19B-E3E2-40C8-8F31-448EE805D6C9}">
   <dimension ref="B2:J85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1182,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>32040</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1205,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>32040</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1219,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>52560</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1265,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>52560</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1288,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>32040</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1317,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>32040</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1334,16 +1334,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="18">
-        <v>36792</v>
+        <v>52560</v>
       </c>
       <c r="G23" s="18">
         <v>1314000</v>
@@ -1357,19 +1357,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>1314000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1380,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F25" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>1314000</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1403,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>52560</v>
@@ -1426,19 +1426,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F27" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>1314000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1449,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>1314000</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1472,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>52560</v>
@@ -1495,19 +1495,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>1314000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1518,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>1314000</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1541,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>52560</v>
@@ -1564,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>52560</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>1314000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1587,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>52560</v>
@@ -1610,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>52560</v>
@@ -1633,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>52560</v>
@@ -1656,13 +1656,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>52560</v>
@@ -1679,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>52560</v>
@@ -1702,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>52560</v>
@@ -1725,13 +1725,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
         <v>52560</v>
@@ -1748,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
         <v>52560</v>
@@ -1771,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
         <v>52560</v>
@@ -1794,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F43" s="18">
         <v>52560</v>
@@ -1817,13 +1817,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18">
         <v>52560</v>
@@ -1840,13 +1840,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
         <v>52560</v>
@@ -1863,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
         <v>52560</v>
@@ -1886,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F47" s="18">
         <v>52560</v>
@@ -1909,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18">
         <v>52560</v>
@@ -1932,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
         <v>52560</v>
@@ -1955,13 +1955,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F50" s="18">
         <v>52560</v>
@@ -1978,13 +1978,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
         <v>52560</v>
@@ -2001,13 +2001,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
         <v>52560</v>
@@ -2024,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F53" s="18">
         <v>52560</v>
@@ -2047,13 +2047,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F54" s="18">
         <v>52560</v>
@@ -2070,13 +2070,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F55" s="18">
         <v>52560</v>
@@ -2093,13 +2093,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F56" s="18">
         <v>52560</v>
@@ -2116,13 +2116,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F57" s="18">
         <v>52560</v>
@@ -2139,13 +2139,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
         <v>52560</v>
@@ -2162,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F59" s="18">
         <v>52560</v>
@@ -2185,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F60" s="18">
         <v>52560</v>
@@ -2208,13 +2208,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
         <v>52560</v>
@@ -2231,13 +2231,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F62" s="18">
         <v>52560</v>
@@ -2254,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F63" s="18">
         <v>52560</v>
@@ -2277,13 +2277,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
         <v>52560</v>
@@ -2300,13 +2300,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F65" s="18">
         <v>52560</v>
@@ -2323,13 +2323,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F66" s="18">
         <v>52560</v>
@@ -2346,13 +2346,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F67" s="18">
         <v>52560</v>
@@ -2369,13 +2369,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F68" s="18">
         <v>52560</v>
@@ -2392,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F69" s="18">
         <v>52560</v>
@@ -2415,13 +2415,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F70" s="18">
         <v>52560</v>
@@ -2438,13 +2438,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F71" s="18">
         <v>52560</v>
@@ -2461,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F72" s="18">
         <v>52560</v>
@@ -2484,13 +2484,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
         <v>52560</v>
@@ -2507,13 +2507,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F74" s="18">
         <v>52560</v>
@@ -2530,19 +2530,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>52560</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2553,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F76" s="18">
-        <v>29509</v>
+        <v>52560</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2576,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>52560</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2599,19 +2599,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>52560</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2622,19 +2622,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D79" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="F79" s="24">
-        <v>29509</v>
+        <v>36792</v>
       </c>
       <c r="G79" s="24">
-        <v>737717</v>
+        <v>1314000</v>
       </c>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
